--- a/03_OUTPUTS/2025-02-20_classification_cyclists.xlsx
+++ b/03_OUTPUTS/2025-02-20_classification_cyclists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -4528,9 +4528,6 @@
     <t>🚴‍♂️💧 Porte-bidons</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>montagne</t>
   </si>
   <si>
@@ -4601,6 +4598,9 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>nb coureurs</t>
   </si>
 </sst>
 </file>
@@ -4862,7 +4862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4909,6 +4909,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -5404,7 +5406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -80889,686 +80891,651 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" customWidth="1"/>
+    <col min="16" max="16" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1508</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="L2" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>1523</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>1524</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>1525</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="O2" s="23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>158</v>
       </c>
-      <c r="D2" s="24">
+      <c r="C3" s="24">
         <v>72.531645569620252</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D3" s="7">
         <v>62.278481012658233</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E3" s="7">
         <v>61.9873417721519</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F3" s="7">
         <v>67.715189873417728</v>
       </c>
-      <c r="H2" s="7">
+      <c r="G3" s="7">
         <v>64.537974683544306</v>
       </c>
-      <c r="I2" s="7">
+      <c r="H3" s="7">
         <v>69.917721518987335</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I3" s="7">
         <v>67.957974683544307</v>
       </c>
-      <c r="K2" s="8">
+      <c r="J3" s="8">
         <v>4.0443037974683547</v>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="L3" s="19" t="str">
         <f>[1]pool!E2</f>
         <v>Bardet</v>
       </c>
-      <c r="N2" s="20" t="str">
+      <c r="M3" s="20" t="str">
         <f>[1]pool!E3</f>
         <v>Woods</v>
       </c>
-      <c r="O2" s="20" t="str">
+      <c r="N3" s="20" t="str">
         <f>[1]pool!E4</f>
         <v>Chaves</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="O3" s="28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
         <v>102</v>
       </c>
-      <c r="D3" s="12">
+      <c r="C4" s="12">
         <v>62.980392156862742</v>
       </c>
-      <c r="E3" s="13">
+      <c r="D4" s="13">
         <v>69.990196078431367</v>
       </c>
-      <c r="F3" s="26">
+      <c r="E4" s="26">
         <v>72.617647058823536</v>
       </c>
-      <c r="G3" s="13">
+      <c r="F4" s="13">
         <v>68.960784313725483</v>
       </c>
-      <c r="H3" s="13">
+      <c r="G4" s="13">
         <v>66.950980392156865</v>
       </c>
-      <c r="I3" s="13">
+      <c r="H4" s="13">
         <v>68.225490196078425</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I4" s="13">
         <v>69.696568627450986</v>
       </c>
-      <c r="K3" s="14">
+      <c r="J4" s="14">
         <v>4.1862745098039218</v>
       </c>
-      <c r="M3" s="18" t="str">
+      <c r="L4" s="18" t="str">
         <f>[1]pool!E5</f>
         <v>Sagan</v>
       </c>
-      <c r="N3" s="10" t="str">
+      <c r="M4" s="10" t="str">
         <f>[1]pool!E6</f>
         <v>Girmay</v>
       </c>
-      <c r="O3" s="10" t="str">
+      <c r="N4" s="10" t="str">
         <f>[1]pool!E7</f>
         <v>Colbrelli</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>1512</v>
-      </c>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="O4" s="29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
         <v>83</v>
       </c>
-      <c r="D4" s="12">
+      <c r="C5" s="12">
         <v>68.07228915662651</v>
       </c>
-      <c r="E4" s="13">
+      <c r="D5" s="13">
         <v>57.69879518072289</v>
       </c>
-      <c r="F4" s="13">
+      <c r="E5" s="13">
         <v>57.048192771084338</v>
       </c>
-      <c r="G4" s="13">
+      <c r="F5" s="13">
         <v>61.433734939759027</v>
       </c>
-      <c r="H4" s="13">
+      <c r="G5" s="13">
         <v>58.75903614457831</v>
       </c>
-      <c r="I4" s="13">
+      <c r="H5" s="13">
         <v>63.313253012048193</v>
       </c>
-      <c r="J4" s="13">
+      <c r="I5" s="13">
         <v>62.615301204819268</v>
       </c>
-      <c r="K4" s="14">
+      <c r="J5" s="14">
         <v>3.1265060240963849</v>
       </c>
-      <c r="M4" s="18" t="str">
+      <c r="L5" s="18" t="str">
         <f>[1]pool!E8</f>
         <v>Buitrago</v>
       </c>
-      <c r="N4" s="10" t="str">
+      <c r="M5" s="10" t="str">
         <f>[1]pool!E9</f>
         <v>Elissonde</v>
       </c>
-      <c r="O4" s="10" t="str">
+      <c r="N5" s="10" t="str">
         <f>[1]pool!E10</f>
         <v>Rubio</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>1513</v>
-      </c>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="O5" s="29" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
         <v>103</v>
       </c>
-      <c r="D5" s="12">
+      <c r="C6" s="12">
         <v>66.038834951456309</v>
       </c>
-      <c r="E5" s="13">
+      <c r="D6" s="13">
         <v>61.28155339805825</v>
       </c>
-      <c r="F5" s="13">
+      <c r="E6" s="13">
         <v>61.359223300970868</v>
       </c>
-      <c r="G5" s="13">
+      <c r="F6" s="13">
         <v>63.563106796116507</v>
       </c>
-      <c r="H5" s="13">
+      <c r="G6" s="13">
         <v>62.466019417475728</v>
       </c>
-      <c r="I5" s="13">
+      <c r="H6" s="13">
         <v>65.757281553398059</v>
       </c>
-      <c r="J5" s="13">
+      <c r="I6" s="13">
         <v>64.881844660194176</v>
       </c>
-      <c r="K5" s="14">
+      <c r="J6" s="14">
         <v>3.2815533980582519</v>
       </c>
-      <c r="M5" s="18" t="str">
+      <c r="L6" s="18" t="str">
         <f>[1]pool!E11</f>
         <v>Vandenabeele</v>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="M6" s="10" t="str">
         <f>[1]pool!E12</f>
         <v>Johannessen</v>
       </c>
-      <c r="O5" s="10" t="str">
+      <c r="N6" s="10" t="str">
         <f>[1]pool!E13</f>
         <v>Romo</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="O6" s="29" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="B7">
         <v>93</v>
       </c>
-      <c r="D6" s="25">
+      <c r="C7" s="25">
         <v>75.989247311827953</v>
       </c>
-      <c r="E6" s="13">
+      <c r="D7" s="13">
         <v>62.526881720430097</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E7" s="13">
         <v>65.666666666666671</v>
       </c>
-      <c r="G6" s="13">
+      <c r="F7" s="13">
         <v>70.6989247311828</v>
       </c>
-      <c r="H6" s="26">
+      <c r="G7" s="26">
         <v>72.978494623655919</v>
       </c>
-      <c r="I6" s="26">
+      <c r="H7" s="26">
         <v>74.290322580645167</v>
       </c>
-      <c r="J6" s="26">
+      <c r="I7" s="26">
         <v>71.254516129032254</v>
       </c>
-      <c r="K6" s="27">
+      <c r="J7" s="27">
         <v>4.903225806451613</v>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="L7" s="18" t="str">
         <f>[1]pool!E14</f>
         <v>Vingegaard</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="M7" s="10" t="str">
         <f>[1]pool!E15</f>
         <v>Bernal</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="N7" s="10" t="str">
         <f>[1]pool!E16</f>
         <v>Carapaz</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>1515</v>
-      </c>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="O7" s="29" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
         <v>60</v>
       </c>
-      <c r="D7" s="12">
+      <c r="C8" s="12">
         <v>58.95</v>
       </c>
-      <c r="E7" s="13">
+      <c r="D8" s="13">
         <v>62.65</v>
       </c>
-      <c r="F7" s="13">
+      <c r="E8" s="13">
         <v>66.016666666666666</v>
       </c>
-      <c r="G7" s="13">
+      <c r="F8" s="13">
         <v>63.083333333333343</v>
       </c>
-      <c r="H7" s="13">
+      <c r="G8" s="13">
         <v>63.85</v>
       </c>
-      <c r="I7" s="13">
+      <c r="H8" s="13">
         <v>62.95</v>
       </c>
-      <c r="J7" s="13">
+      <c r="I8" s="13">
         <v>64.575666666666663</v>
       </c>
-      <c r="K7" s="14">
+      <c r="J8" s="14">
         <v>3.1166666666666671</v>
       </c>
-      <c r="M7" s="18" t="str">
+      <c r="L8" s="18" t="str">
         <f>[1]pool!E17</f>
         <v>Robeet</v>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="M8" s="10" t="str">
         <f>[1]pool!E18</f>
         <v>Vergaerde</v>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="N8" s="10" t="str">
         <f>[1]pool!E19</f>
         <v>O'Brien</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>1516</v>
-      </c>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="O8" s="29" t="s">
+        <v>1515</v>
+      </c>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
         <v>98</v>
       </c>
-      <c r="D8" s="12">
+      <c r="C9" s="12">
         <v>58.010204081632651</v>
       </c>
-      <c r="E8" s="13">
+      <c r="D9" s="13">
         <v>70.908163265306129</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E9" s="13">
         <v>66.142857142857139</v>
       </c>
-      <c r="G8" s="13">
+      <c r="F9" s="13">
         <v>65.071428571428569</v>
       </c>
-      <c r="H8" s="13">
+      <c r="G9" s="13">
         <v>62.071428571428569</v>
       </c>
-      <c r="I8" s="13">
+      <c r="H9" s="13">
         <v>64.489795918367349</v>
       </c>
-      <c r="J8" s="13">
+      <c r="I9" s="13">
         <v>65.940918367346924</v>
       </c>
-      <c r="K8" s="14">
+      <c r="J9" s="14">
         <v>3.454081632653061</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="L9" s="18" t="str">
         <f>[1]pool!E20</f>
         <v>Bouhanni</v>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="M9" s="10" t="str">
         <f>[1]pool!E21</f>
         <v>Hodeg</v>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="N9" s="10" t="str">
         <f>[1]pool!E22</f>
         <v>Aberasturi</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
+      <c r="O9" s="29" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="D9" s="12">
+      <c r="C10" s="12">
         <v>69.888888888888886</v>
       </c>
-      <c r="E9" s="13">
+      <c r="D10" s="13">
         <v>69.740740740740748</v>
       </c>
-      <c r="F9" s="26">
+      <c r="E10" s="26">
         <v>76.037037037037038</v>
       </c>
-      <c r="G9" s="26">
+      <c r="F10" s="26">
         <v>75.81481481481481</v>
       </c>
-      <c r="H9" s="26">
+      <c r="G10" s="26">
         <v>73.592592592592595</v>
       </c>
-      <c r="I9" s="26">
+      <c r="H10" s="26">
         <v>71.518518518518519</v>
       </c>
-      <c r="J9" s="26">
+      <c r="I10" s="26">
         <v>74.002962962962954</v>
       </c>
-      <c r="K9" s="14">
+      <c r="J10" s="14">
         <v>5.166666666666667</v>
       </c>
-      <c r="M9" s="18" t="str">
+      <c r="L10" s="18" t="str">
         <f>[1]pool!E23</f>
         <v>Van Der Poel</v>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="M10" s="10" t="str">
         <f>[1]pool!E24</f>
         <v>Van Aert</v>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="N10" s="10" t="str">
         <f>[1]pool!E25</f>
         <v>Van Baarle</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>1518</v>
-      </c>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
+      <c r="O10" s="29" t="s">
+        <v>1517</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
         <v>49</v>
       </c>
-      <c r="D10" s="12">
+      <c r="C11" s="12">
         <v>63.102040816326529</v>
       </c>
-      <c r="E10" s="13">
+      <c r="D11" s="13">
         <v>60.734693877551017</v>
       </c>
-      <c r="F10" s="13">
+      <c r="E11" s="13">
         <v>69.040816326530617</v>
       </c>
-      <c r="G10" s="13">
+      <c r="F11" s="13">
         <v>66.510204081632651</v>
       </c>
-      <c r="H10" s="26">
+      <c r="G11" s="26">
         <v>70.34693877551021</v>
       </c>
-      <c r="I10" s="13">
+      <c r="H11" s="13">
         <v>68.020408163265301</v>
       </c>
-      <c r="J10" s="13">
+      <c r="I11" s="13">
         <v>67.62510204081633</v>
       </c>
-      <c r="K10" s="14">
+      <c r="J11" s="14">
         <v>3.8979591836734691</v>
       </c>
-      <c r="M10" s="18" t="str">
+      <c r="L11" s="18" t="str">
         <f>[1]pool!E26</f>
         <v>Affini</v>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="M11" s="10" t="str">
         <f>[1]pool!E27</f>
         <v>Carny</v>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="N11" s="10" t="str">
         <f>[1]pool!E28</f>
         <v>Scotson</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>1519</v>
-      </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
+      <c r="O11" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
         <v>54</v>
       </c>
-      <c r="D11" s="12">
+      <c r="C12" s="12">
         <v>59.25925925925926</v>
       </c>
-      <c r="E11" s="26">
+      <c r="D12" s="26">
         <v>76.31481481481481</v>
       </c>
-      <c r="F11" s="26">
+      <c r="E12" s="26">
         <v>70.944444444444443</v>
       </c>
-      <c r="G11" s="13">
+      <c r="F12" s="13">
         <v>68.777777777777771</v>
       </c>
-      <c r="H11" s="13">
+      <c r="G12" s="13">
         <v>63.25925925925926</v>
       </c>
-      <c r="I11" s="13">
+      <c r="H12" s="13">
         <v>68.222222222222229</v>
       </c>
-      <c r="J11" s="13">
+      <c r="I12" s="13">
         <v>68.940740740740722</v>
       </c>
-      <c r="K11" s="14">
+      <c r="J12" s="14">
         <v>4.4351851851851851</v>
       </c>
-      <c r="M11" s="18" t="str">
+      <c r="L12" s="18" t="str">
         <f>[1]pool!E29</f>
         <v>Philipsen</v>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="M12" s="10" t="str">
         <f>[1]pool!E30</f>
         <v>Jakussen</v>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="N12" s="10" t="str">
         <f>[1]pool!E31</f>
         <v>Merlier</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>1520</v>
-      </c>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
+      <c r="O12" s="29" t="s">
+        <v>1519</v>
+      </c>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
         <v>52</v>
       </c>
-      <c r="D12" s="12">
+      <c r="C13" s="12">
         <v>68.538461538461533</v>
       </c>
-      <c r="E12" s="13">
+      <c r="D13" s="13">
         <v>67.769230769230774</v>
       </c>
-      <c r="F12" s="13">
+      <c r="E13" s="13">
         <v>67.5</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F13" s="13">
         <v>69.865384615384613</v>
       </c>
-      <c r="H12" s="13">
+      <c r="G13" s="13">
         <v>69.5</v>
       </c>
-      <c r="I12" s="13">
+      <c r="H13" s="13">
         <v>69.17307692307692</v>
       </c>
-      <c r="J12" s="26">
+      <c r="I13" s="26">
         <v>70.087500000000006</v>
       </c>
-      <c r="K12" s="14">
+      <c r="J13" s="14">
         <v>4.2211538461538458</v>
       </c>
-      <c r="M12" s="18" t="str">
+      <c r="L13" s="18" t="str">
         <f>[1]pool!E32</f>
         <v>Hirschi</v>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="M13" s="10" t="str">
         <f>[1]pool!E33</f>
         <v>Izagirre</v>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="N13" s="10" t="str">
         <f>[1]pool!E34</f>
         <v>Hermans</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="1">
+      <c r="O13" s="29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="B14">
         <v>29</v>
       </c>
-      <c r="D13" s="15">
+      <c r="C14" s="15">
         <v>56.862068965517238</v>
       </c>
-      <c r="E13" s="16">
+      <c r="D14" s="16">
         <v>61.310344827586214</v>
       </c>
-      <c r="F13" s="16">
+      <c r="E14" s="16">
         <v>60.241379310344833</v>
       </c>
-      <c r="G13" s="16">
+      <c r="F14" s="16">
         <v>57.275862068965523</v>
       </c>
-      <c r="H13" s="16">
+      <c r="G14" s="16">
         <v>59.586206896551722</v>
       </c>
-      <c r="I13" s="16">
+      <c r="H14" s="16">
         <v>58.103448275862071</v>
       </c>
-      <c r="J13" s="16">
+      <c r="I14" s="16">
         <v>60.787586206896542</v>
       </c>
-      <c r="K13" s="17">
+      <c r="J14" s="17">
         <v>2.1551724137931041</v>
       </c>
-      <c r="M13" s="18" t="str">
+      <c r="L14" s="18" t="str">
         <f>[1]pool!E35</f>
         <v>Paquot</v>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="M14" s="10" t="str">
         <f>[1]pool!E36</f>
         <v>Calman</v>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="N14" s="10" t="str">
         <f>[1]pool!E37</f>
         <v>Gaze</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="M14" s="9"/>
+      <c r="O14" s="29" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="L15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -81613,7 +81580,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
